--- a/Analyst_Loc_Region_Country.xlsx
+++ b/Analyst_Loc_Region_Country.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Documents\ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2786F1CE-6CF9-4964-B01A-D2288153514F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD1B95-00FC-42FB-BEA3-9AB4275C3061}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
